--- a/database/sidis/expdata/10054.xlsx
+++ b/database/sidis/expdata/10054.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF95EE4-A3F6-4BC0-A38C-7293CEC7E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10893487-F4ED-AA42-8835-BE61A45D89D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17754" yWindow="1824" windowWidth="13170" windowHeight="11520" xr2:uid="{C26F0B2D-0FA3-4AA3-B8AB-31CF6108B3A3}"/>
+    <workbookView xWindow="15620" yWindow="1820" windowWidth="13180" windowHeight="11520" xr2:uid="{C26F0B2D-0FA3-4AA3-B8AB-31CF6108B3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -104,12 +95,15 @@
   <si>
     <t>pi+</t>
   </si>
+  <si>
+    <t>depol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02663AAC-BC2B-4A4B-91AF-FBE1E9BD23FC}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="T2" sqref="T2:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +569,11 @@
       <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>1.46</v>
       </c>
@@ -634,8 +631,11 @@
       <c r="S2" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>1.51</v>
       </c>
@@ -693,8 +693,11 @@
       <c r="S3" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>1.54</v>
       </c>
@@ -752,8 +755,11 @@
       <c r="S4" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>1.59</v>
       </c>
@@ -811,8 +817,11 @@
       <c r="S5" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>1.43</v>
       </c>
@@ -870,8 +879,11 @@
       <c r="S6" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>1.48</v>
       </c>
@@ -929,8 +941,11 @@
       <c r="S7" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>1.52</v>
       </c>
@@ -988,8 +1003,11 @@
       <c r="S8" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>1.56</v>
       </c>
@@ -1047,8 +1065,11 @@
       <c r="S9" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>1.4</v>
       </c>
@@ -1106,8 +1127,11 @@
       <c r="S10" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>1.45</v>
       </c>
@@ -1165,8 +1189,11 @@
       <c r="S11" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>1.49</v>
       </c>
@@ -1224,8 +1251,11 @@
       <c r="S12" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>1.54</v>
       </c>
@@ -1283,8 +1313,11 @@
       <c r="S13" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>1.38</v>
       </c>
@@ -1342,8 +1375,11 @@
       <c r="S14" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>1.41</v>
       </c>
@@ -1401,8 +1437,11 @@
       <c r="S15" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>1.45</v>
       </c>
@@ -1460,8 +1499,11 @@
       <c r="S16" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="3">
         <v>1.51</v>
       </c>
@@ -1519,8 +1561,11 @@
       <c r="S17" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="3">
         <v>2.1</v>
       </c>
@@ -1578,8 +1623,11 @@
       <c r="S18" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="3">
         <v>2.39</v>
       </c>
@@ -1637,8 +1685,11 @@
       <c r="S19" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="3">
         <v>2.4700000000000002</v>
       </c>
@@ -1696,8 +1747,11 @@
       <c r="S20" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="3">
         <v>2.73</v>
       </c>
@@ -1755,8 +1809,11 @@
       <c r="S21" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="3">
         <v>1.89</v>
       </c>
@@ -1814,8 +1871,11 @@
       <c r="S22" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="3">
         <v>2.14</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="S23" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -1932,8 +1995,11 @@
       <c r="S24" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="3">
         <v>2.5099999999999998</v>
       </c>
@@ -1991,8 +2057,11 @@
       <c r="S25" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="3">
         <v>1.83</v>
       </c>
@@ -2050,8 +2119,11 @@
       <c r="S26" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="3">
         <v>1.99</v>
       </c>
@@ -2109,8 +2181,11 @@
       <c r="S27" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="3">
         <v>2.1800000000000002</v>
       </c>
@@ -2168,8 +2243,11 @@
       <c r="S28" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="3">
         <v>2.38</v>
       </c>
@@ -2227,8 +2305,11 @@
       <c r="S29" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="3">
         <v>1.78</v>
       </c>
@@ -2286,8 +2367,11 @@
       <c r="S30" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="3">
         <v>1.87</v>
       </c>
@@ -2345,8 +2429,11 @@
       <c r="S31" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="3">
         <v>2.02</v>
       </c>
@@ -2404,8 +2491,11 @@
       <c r="S32" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="3">
         <v>2.29</v>
       </c>
@@ -2463,8 +2553,11 @@
       <c r="S33" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="3">
         <v>2.86</v>
       </c>
@@ -2522,8 +2615,11 @@
       <c r="S34" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="3">
         <v>3.18</v>
       </c>
@@ -2581,8 +2677,11 @@
       <c r="S35" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="3">
         <v>3.26</v>
       </c>
@@ -2640,8 +2739,11 @@
       <c r="S36" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="3">
         <v>3.53</v>
       </c>
@@ -2699,8 +2801,11 @@
       <c r="S37" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="3">
         <v>2.5299999999999998</v>
       </c>
@@ -2758,8 +2863,11 @@
       <c r="S38" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="3">
         <v>2.81</v>
       </c>
@@ -2817,8 +2925,11 @@
       <c r="S39" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="3">
         <v>3.03</v>
       </c>
@@ -2876,8 +2987,11 @@
       <c r="S40" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="3">
         <v>3.21</v>
       </c>
@@ -2935,8 +3049,11 @@
       <c r="S41" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="3">
         <v>2.41</v>
       </c>
@@ -2994,8 +3111,11 @@
       <c r="S42" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="3">
         <v>2.5099999999999998</v>
       </c>
@@ -3053,8 +3173,11 @@
       <c r="S43" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="3">
         <v>2.84</v>
       </c>
@@ -3112,8 +3235,11 @@
       <c r="S44" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="3">
         <v>3.11</v>
       </c>
@@ -3171,8 +3297,11 @@
       <c r="S45" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="3">
         <v>2.38</v>
       </c>
@@ -3230,8 +3359,11 @@
       <c r="S46" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="3">
         <v>2.4</v>
       </c>
@@ -3289,8 +3421,11 @@
       <c r="S47" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="3">
         <v>2.5499999999999998</v>
       </c>
@@ -3348,8 +3483,11 @@
       <c r="S48" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="3">
         <v>2.98</v>
       </c>
@@ -3407,8 +3545,11 @@
       <c r="S49" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="3">
         <v>4.95</v>
       </c>
@@ -3466,8 +3607,11 @@
       <c r="S50" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="3">
         <v>5.26</v>
       </c>
@@ -3525,8 +3669,11 @@
       <c r="S51" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="3">
         <v>5.21</v>
       </c>
@@ -3584,8 +3731,11 @@
       <c r="S52" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="3">
         <v>5.42</v>
       </c>
@@ -3643,8 +3793,11 @@
       <c r="S53" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="3">
         <v>4.4800000000000004</v>
       </c>
@@ -3702,8 +3855,11 @@
       <c r="S54" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="3">
         <v>4.6399999999999997</v>
       </c>
@@ -3761,8 +3917,11 @@
       <c r="S55" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="3">
         <v>4.8899999999999997</v>
       </c>
@@ -3820,8 +3979,11 @@
       <c r="S56" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="3">
         <v>4.93</v>
       </c>
@@ -3879,8 +4041,11 @@
       <c r="S57" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="3">
         <v>4.38</v>
       </c>
@@ -3938,8 +4103,11 @@
       <c r="S58" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="3">
         <v>4.38</v>
       </c>
@@ -3997,8 +4165,11 @@
       <c r="S59" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="3">
         <v>4.6500000000000004</v>
       </c>
@@ -4056,8 +4227,11 @@
       <c r="S60" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="3">
         <v>4.84</v>
       </c>
@@ -4115,8 +4289,11 @@
       <c r="S61" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="3">
         <v>4.33</v>
       </c>
@@ -4174,8 +4351,11 @@
       <c r="S62" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="3">
         <v>4.28</v>
       </c>
@@ -4233,8 +4413,11 @@
       <c r="S63" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="3">
         <v>4.41</v>
       </c>
@@ -4292,8 +4475,11 @@
       <c r="S64" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="3">
         <v>4.82</v>
       </c>
@@ -4350,6 +4536,9 @@
       </c>
       <c r="S65" s="6">
         <v>0.6</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
